--- a/Tables/Table6_Computation_Time_and_Memory.xlsx
+++ b/Tables/Table6_Computation_Time_and_Memory.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\ThesisWriting\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5923308C-6B45-4082-8083-B9611BCB9260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07CDBD2-6C09-4E81-B553-EE6AE673A62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="48">
   <si>
     <t>Trait</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,118 @@
   </si>
   <si>
     <t>Cores</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-09:30:54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-12:26:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>93.58G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-02:48:57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.35G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99.40M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.61G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.32G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.14G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30.53M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>984K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>723.09M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>984.00K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.07M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.00G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.93G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.40G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>456.68M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54.74M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.70G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.32G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.81G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.59G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.33G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.10G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.48G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.10G</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -147,9 +259,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,7 +546,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32:E37"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -487,10 +600,17 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.28391203703703705</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -560,6 +680,15 @@
       <c r="E5">
         <v>10</v>
       </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -577,6 +706,15 @@
       <c r="E6">
         <v>1</v>
       </c>
+      <c r="F6" s="1">
+        <v>0.31624999999999998</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.31538194444444445</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -594,6 +732,15 @@
       <c r="E7">
         <v>4</v>
       </c>
+      <c r="F7" s="1">
+        <v>1.5624999999999999E-3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4.7685185185185183E-3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -611,6 +758,15 @@
       <c r="E8">
         <v>4</v>
       </c>
+      <c r="F8" s="1">
+        <v>7.3379629629629628E-3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2.3344907407407408E-2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -628,6 +784,15 @@
       <c r="E9">
         <v>4</v>
       </c>
+      <c r="F9" s="1">
+        <v>2.0138888888888888E-3</v>
+      </c>
+      <c r="G9" s="1">
+        <v>6.9791666666666674E-3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -645,6 +810,15 @@
       <c r="E10">
         <v>4</v>
       </c>
+      <c r="F10" s="1">
+        <v>1.3506944444444445E-2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3.7685185185185183E-2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -662,6 +836,15 @@
       <c r="E11">
         <v>10</v>
       </c>
+      <c r="F11" s="1">
+        <v>3.9930555555555561E-3</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2.8055555555555556E-2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -679,6 +862,15 @@
       <c r="E12">
         <v>1</v>
       </c>
+      <c r="F12" s="1">
+        <v>1.3368055555555557E-2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1.329861111111111E-2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -696,6 +888,15 @@
       <c r="E13">
         <v>4</v>
       </c>
+      <c r="F13" s="1">
+        <v>2.6620370370370372E-4</v>
+      </c>
+      <c r="G13" s="1">
+        <v>7.7546296296296304E-4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -713,6 +914,8 @@
       <c r="E14">
         <v>4</v>
       </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -747,8 +950,17 @@
       <c r="E16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="2">
+        <v>9.7569444444444448E-3</v>
+      </c>
+      <c r="G16" s="1">
+        <v>3.0416666666666665E-2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>7985</v>
       </c>
@@ -764,8 +976,17 @@
       <c r="E17">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="1">
+        <v>5.7870370370370366E-5</v>
+      </c>
+      <c r="G17" s="1">
+        <v>3.7037037037037035E-4</v>
+      </c>
+      <c r="H17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>7985</v>
       </c>
@@ -781,8 +1002,17 @@
       <c r="E18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="1">
+        <v>9.3287037037037036E-3</v>
+      </c>
+      <c r="G18" s="1">
+        <v>9.2708333333333341E-3</v>
+      </c>
+      <c r="H18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>7985</v>
       </c>
@@ -798,8 +1028,17 @@
       <c r="E19">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="1">
+        <v>1.9675925925925926E-4</v>
+      </c>
+      <c r="G19" s="1">
+        <v>5.5555555555555556E-4</v>
+      </c>
+      <c r="H19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>41360</v>
       </c>
@@ -815,8 +1054,17 @@
       <c r="E20">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="1">
+        <v>2.8703703703703703E-2</v>
+      </c>
+      <c r="G20" s="1">
+        <v>9.1840277777777771E-2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>41360</v>
       </c>
@@ -832,8 +1080,17 @@
       <c r="E21">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="1">
+        <v>1.9872685185185184E-2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>7.1851851851851847E-2</v>
+      </c>
+      <c r="H21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>41360</v>
       </c>
@@ -849,8 +1106,17 @@
       <c r="E22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="1">
+        <v>3.6724537037037035E-2</v>
+      </c>
+      <c r="G22" s="1">
+        <v>7.9386574074074082E-2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>41360</v>
       </c>
@@ -866,8 +1132,17 @@
       <c r="E23">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" s="1">
+        <v>1.1342592592592591E-3</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1.6203703703703703E-3</v>
+      </c>
+      <c r="H23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>41360</v>
       </c>
@@ -883,8 +1158,17 @@
       <c r="E24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" s="1">
+        <v>6.9467592592592595E-2</v>
+      </c>
+      <c r="G24" s="1">
+        <v>6.913194444444444E-2</v>
+      </c>
+      <c r="H24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>41360</v>
       </c>
@@ -900,8 +1184,17 @@
       <c r="E25">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" s="1">
+        <v>1.3078703703703705E-3</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2.9282407407407412E-3</v>
+      </c>
+      <c r="H25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>66688</v>
       </c>
@@ -917,8 +1210,17 @@
       <c r="E26">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" s="1">
+        <v>3.7696759259259256E-2</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.12975694444444444</v>
+      </c>
+      <c r="H26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>66688</v>
       </c>
@@ -934,8 +1236,17 @@
       <c r="E27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" s="1">
+        <v>3.2939814814814811E-2</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.12152777777777778</v>
+      </c>
+      <c r="H27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>66688</v>
       </c>
@@ -951,8 +1262,17 @@
       <c r="E28">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" s="1">
+        <v>7.8773148148148148E-2</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.1816550925925926</v>
+      </c>
+      <c r="H28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>66688</v>
       </c>
@@ -968,8 +1288,17 @@
       <c r="E29">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>66688</v>
       </c>
@@ -985,8 +1314,17 @@
       <c r="E30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" t="s">
+        <v>42</v>
+      </c>
+      <c r="H30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>66688</v>
       </c>
@@ -1002,8 +1340,17 @@
       <c r="E31">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31" s="1">
+        <v>1.5856481481481479E-3</v>
+      </c>
+      <c r="G31" s="1">
+        <v>4.7222222222222223E-3</v>
+      </c>
+      <c r="H31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>10000</v>
       </c>
@@ -1019,8 +1366,17 @@
       <c r="E32">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32" s="1">
+        <v>6.7939814814814816E-3</v>
+      </c>
+      <c r="G32" s="1">
+        <v>2.0891203703703703E-2</v>
+      </c>
+      <c r="H32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>10000</v>
       </c>
@@ -1036,8 +1392,17 @@
       <c r="E33">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" s="1">
+        <v>2.5347222222222221E-3</v>
+      </c>
+      <c r="G33" s="1">
+        <v>8.5069444444444437E-3</v>
+      </c>
+      <c r="H33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>10000</v>
       </c>
@@ -1053,8 +1418,17 @@
       <c r="E34">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34" s="1">
+        <v>7.4826388888888887E-2</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.1759375</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>10000</v>
       </c>
@@ -1070,8 +1444,17 @@
       <c r="E35">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" s="1">
+        <v>5.0578703703703706E-3</v>
+      </c>
+      <c r="G35" s="1">
+        <v>4.1562500000000002E-2</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>10000</v>
       </c>
@@ -1087,8 +1470,17 @@
       <c r="E36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36" t="s">
+        <v>42</v>
+      </c>
+      <c r="G36" t="s">
+        <v>42</v>
+      </c>
+      <c r="H36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>10000</v>
       </c>

--- a/Tables/Table6_Computation_Time_and_Memory.xlsx
+++ b/Tables/Table6_Computation_Time_and_Memory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07CDBD2-6C09-4E81-B553-EE6AE673A62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD7400D-98FE-4E94-9774-64B2F3740A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="50">
   <si>
     <t>Trait</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,10 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>99.40M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2.61G</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -143,26 +139,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30.53M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>984K</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>723.09M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>984.00K</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>22.07M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4.00G</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,14 +159,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>456.68M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54.74M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.70G</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -216,6 +192,38 @@
   </si>
   <si>
     <t>2.10G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.46G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.86G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.74G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.02G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.45G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.71G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.03G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.10G</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -597,19 +605,19 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>0.28391203703703705</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>23</v>
+        <v>0.31624999999999998</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.31538194444444445</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -623,19 +631,19 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>4</v>
       </c>
       <c r="F3" s="1">
-        <v>3.7418981481481477E-2</v>
+        <v>1.5624999999999999E-3</v>
       </c>
       <c r="G3" s="1">
-        <v>0.13766203703703703</v>
+        <v>4.7685185185185183E-3</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -649,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>4</v>
       </c>
       <c r="F4" s="1">
-        <v>7.1701388888888884E-2</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.12003472222222222</v>
+        <v>0.28391203703703705</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -675,19 +683,19 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
+        <v>4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3.7418981481481477E-2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.13766203703703703</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -701,19 +709,19 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F6" s="1">
-        <v>0.31624999999999998</v>
+        <v>7.1701388888888884E-2</v>
       </c>
       <c r="G6" s="1">
-        <v>0.31538194444444445</v>
+        <v>0.12003472222222222</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -727,19 +735,19 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1.5624999999999999E-3</v>
-      </c>
-      <c r="G7" s="1">
-        <v>4.7685185185185183E-3</v>
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -753,19 +761,19 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>7.3379629629629628E-3</v>
+        <v>1.3368055555555557E-2</v>
       </c>
       <c r="G8" s="1">
-        <v>2.3344907407407408E-2</v>
+        <v>1.329861111111111E-2</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -779,16 +787,16 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>4</v>
       </c>
       <c r="F9" s="1">
-        <v>2.0138888888888888E-3</v>
+        <v>2.6620370370370372E-4</v>
       </c>
       <c r="G9" s="1">
-        <v>6.9791666666666674E-3</v>
+        <v>7.7546296296296304E-4</v>
       </c>
       <c r="H9" t="s">
         <v>28</v>
@@ -805,19 +813,19 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>4</v>
       </c>
       <c r="F10" s="1">
-        <v>1.3506944444444445E-2</v>
+        <v>7.3379629629629628E-3</v>
       </c>
       <c r="G10" s="1">
-        <v>3.7685185185185183E-2</v>
+        <v>2.3344907407407408E-2</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -831,19 +839,19 @@
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F11" s="1">
-        <v>3.9930555555555561E-3</v>
+        <v>2.0138888888888888E-3</v>
       </c>
       <c r="G11" s="1">
-        <v>2.8055555555555556E-2</v>
+        <v>6.9791666666666674E-3</v>
       </c>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -857,19 +865,19 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F12" s="1">
-        <v>1.3368055555555557E-2</v>
+        <v>1.3506944444444445E-2</v>
       </c>
       <c r="G12" s="1">
-        <v>1.329861111111111E-2</v>
+        <v>3.7685185185185183E-2</v>
       </c>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -883,19 +891,19 @@
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F13" s="1">
-        <v>2.6620370370370372E-4</v>
+        <v>3.9930555555555561E-3</v>
       </c>
       <c r="G13" s="1">
-        <v>7.7546296296296304E-4</v>
+        <v>2.8055555555555556E-2</v>
       </c>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -909,13 +917,20 @@
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E14">
-        <v>4</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>9.3287037037037036E-3</v>
+      </c>
+      <c r="G14" s="1">
+        <v>9.2708333333333341E-3</v>
+      </c>
+      <c r="H14" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -928,10 +943,19 @@
         <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>4</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1.9675925925925926E-4</v>
+      </c>
+      <c r="G15" s="1">
+        <v>5.5555555555555556E-4</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -945,19 +969,19 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16">
         <v>4</v>
       </c>
-      <c r="F16" s="2">
-        <v>9.7569444444444448E-3</v>
+      <c r="F16" s="1">
+        <v>3.7731481481481483E-3</v>
       </c>
       <c r="G16" s="1">
-        <v>3.0416666666666665E-2</v>
+        <v>1.2708333333333334E-2</v>
       </c>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -971,19 +995,19 @@
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E17">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F17" s="1">
-        <v>5.7870370370370366E-5</v>
+        <v>3.2870370370370367E-3</v>
       </c>
       <c r="G17" s="1">
-        <v>3.7037037037037035E-4</v>
+        <v>9.3981481481481485E-3</v>
       </c>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -997,19 +1021,19 @@
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>9.3287037037037036E-3</v>
+        <v>4</v>
+      </c>
+      <c r="F18" s="2">
+        <v>9.7569444444444448E-3</v>
       </c>
       <c r="G18" s="1">
-        <v>9.2708333333333341E-3</v>
+        <v>3.0416666666666665E-2</v>
       </c>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1023,19 +1047,19 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F19" s="1">
-        <v>1.9675925925925926E-4</v>
+        <v>5.7870370370370366E-5</v>
       </c>
       <c r="G19" s="1">
-        <v>5.5555555555555556E-4</v>
+        <v>3.7037037037037035E-4</v>
       </c>
       <c r="H19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1049,19 +1073,19 @@
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F20" s="1">
-        <v>2.8703703703703703E-2</v>
+        <v>6.9467592592592595E-2</v>
       </c>
       <c r="G20" s="1">
-        <v>9.1840277777777771E-2</v>
-      </c>
-      <c r="H20" t="s">
-        <v>34</v>
+        <v>6.913194444444444E-2</v>
+      </c>
+      <c r="H20">
+        <v>0.05</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1075,19 +1099,19 @@
         <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E21">
         <v>4</v>
       </c>
       <c r="F21" s="1">
-        <v>1.9872685185185184E-2</v>
+        <v>1.3078703703703705E-3</v>
       </c>
       <c r="G21" s="1">
-        <v>7.1851851851851847E-2</v>
+        <v>2.9282407407407412E-3</v>
       </c>
       <c r="H21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1101,19 +1125,19 @@
         <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E22">
         <v>4</v>
       </c>
       <c r="F22" s="1">
-        <v>3.6724537037037035E-2</v>
+        <v>2.8703703703703703E-2</v>
       </c>
       <c r="G22" s="1">
-        <v>7.9386574074074082E-2</v>
+        <v>9.1840277777777771E-2</v>
       </c>
       <c r="H22" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1127,19 +1151,19 @@
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E23">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F23" s="1">
-        <v>1.1342592592592591E-3</v>
+        <v>1.9872685185185184E-2</v>
       </c>
       <c r="G23" s="1">
-        <v>1.6203703703703703E-3</v>
+        <v>7.1851851851851847E-2</v>
       </c>
       <c r="H23" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1153,19 +1177,19 @@
         <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F24" s="1">
-        <v>6.9467592592592595E-2</v>
+        <v>3.6724537037037035E-2</v>
       </c>
       <c r="G24" s="1">
-        <v>6.913194444444444E-2</v>
+        <v>7.9386574074074082E-2</v>
       </c>
       <c r="H24" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1179,19 +1203,19 @@
         <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F25" s="1">
-        <v>1.3078703703703705E-3</v>
+        <v>1.1342592592592591E-3</v>
       </c>
       <c r="G25" s="1">
-        <v>2.9282407407407412E-3</v>
+        <v>1.6203703703703703E-3</v>
       </c>
       <c r="H25" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1205,19 +1229,19 @@
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E26">
-        <v>4</v>
-      </c>
-      <c r="F26" s="1">
-        <v>3.7696759259259256E-2</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0.12975694444444444</v>
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" t="s">
+        <v>36</v>
       </c>
       <c r="H26" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1231,19 +1255,19 @@
         <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E27">
         <v>4</v>
       </c>
       <c r="F27" s="1">
-        <v>3.2939814814814811E-2</v>
+        <v>1.5856481481481479E-3</v>
       </c>
       <c r="G27" s="1">
-        <v>0.12152777777777778</v>
+        <v>4.7222222222222223E-3</v>
       </c>
       <c r="H27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1257,19 +1281,19 @@
         <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E28">
         <v>4</v>
       </c>
       <c r="F28" s="1">
-        <v>7.8773148148148148E-2</v>
+        <v>3.7696759259259256E-2</v>
       </c>
       <c r="G28" s="1">
-        <v>0.1816550925925926</v>
+        <v>0.12975694444444444</v>
       </c>
       <c r="H28" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1283,19 +1307,19 @@
         <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E29">
-        <v>10</v>
-      </c>
-      <c r="F29" t="s">
-        <v>42</v>
-      </c>
-      <c r="G29" t="s">
-        <v>42</v>
+        <v>4</v>
+      </c>
+      <c r="F29" s="1">
+        <v>3.2939814814814811E-2</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.12152777777777778</v>
       </c>
       <c r="H29" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1309,19 +1333,19 @@
         <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30" t="s">
-        <v>42</v>
-      </c>
-      <c r="G30" t="s">
-        <v>42</v>
+        <v>4</v>
+      </c>
+      <c r="F30" s="1">
+        <v>7.8773148148148148E-2</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.1816550925925926</v>
       </c>
       <c r="H30" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1335,19 +1359,19 @@
         <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E31">
-        <v>4</v>
-      </c>
-      <c r="F31" s="1">
-        <v>1.5856481481481479E-3</v>
-      </c>
-      <c r="G31" s="1">
-        <v>4.7222222222222223E-3</v>
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" t="s">
+        <v>36</v>
       </c>
       <c r="H31" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1361,19 +1385,19 @@
         <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E32">
-        <v>4</v>
-      </c>
-      <c r="F32" s="1">
-        <v>6.7939814814814816E-3</v>
-      </c>
-      <c r="G32" s="1">
-        <v>2.0891203703703703E-2</v>
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" t="s">
+        <v>36</v>
       </c>
       <c r="H32" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -1387,19 +1411,19 @@
         <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E33">
         <v>4</v>
       </c>
       <c r="F33" s="1">
-        <v>2.5347222222222221E-3</v>
+        <v>8.449074074074075E-4</v>
       </c>
       <c r="G33" s="1">
-        <v>8.5069444444444437E-3</v>
+        <v>1.0185185185185186E-3</v>
       </c>
       <c r="H33" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -1413,19 +1437,19 @@
         <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E34">
         <v>4</v>
       </c>
       <c r="F34" s="1">
-        <v>7.4826388888888887E-2</v>
+        <v>6.7939814814814816E-3</v>
       </c>
       <c r="G34" s="1">
-        <v>0.1759375</v>
+        <v>2.0891203703703703E-2</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -1439,19 +1463,19 @@
         <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E35">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F35" s="1">
-        <v>5.0578703703703706E-3</v>
+        <v>2.5347222222222221E-3</v>
       </c>
       <c r="G35" s="1">
-        <v>4.1562500000000002E-2</v>
+        <v>8.5069444444444437E-3</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -1465,19 +1489,19 @@
         <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36" t="s">
-        <v>42</v>
-      </c>
-      <c r="G36" t="s">
-        <v>42</v>
+        <v>4</v>
+      </c>
+      <c r="F36" s="1">
+        <v>7.4826388888888887E-2</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.1759375</v>
       </c>
       <c r="H36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -1491,10 +1515,19 @@
         <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E37">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="F37" s="1">
+        <v>5.0578703703703706E-3</v>
+      </c>
+      <c r="G37" s="1">
+        <v>4.1562500000000002E-2</v>
+      </c>
+      <c r="H37" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Table6_Computation_Time_and_Memory.xlsx
+++ b/Tables/Table6_Computation_Time_and_Memory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD7400D-98FE-4E94-9774-64B2F3740A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EE5A56-D72E-41AF-B61B-AE6AA7D2407E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="21760" windowHeight="13840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="51">
   <si>
     <t>Trait</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,6 +224,10 @@
   </si>
   <si>
     <t>0.10G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.05G</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -554,7 +558,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="A2" sqref="A2:H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1084,8 +1088,8 @@
       <c r="G20" s="1">
         <v>6.913194444444444E-2</v>
       </c>
-      <c r="H20">
-        <v>0.05</v>
+      <c r="H20" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">

--- a/Tables/Table6_Computation_Time_and_Memory.xlsx
+++ b/Tables/Table6_Computation_Time_and_Memory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EE5A56-D72E-41AF-B61B-AE6AA7D2407E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C280AC2E-B098-4F1A-9E9A-09F8FE34050B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="21760" windowHeight="13840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="51">
   <si>
     <t>Trait</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -555,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H37"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1233,19 +1233,19 @@
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" t="s">
-        <v>36</v>
+        <v>4</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1.5856481481481479E-3</v>
+      </c>
+      <c r="G26" s="1">
+        <v>4.7222222222222223E-3</v>
       </c>
       <c r="H26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1259,19 +1259,19 @@
         <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E27">
         <v>4</v>
       </c>
       <c r="F27" s="1">
-        <v>1.5856481481481479E-3</v>
+        <v>3.7696759259259256E-2</v>
       </c>
       <c r="G27" s="1">
-        <v>4.7222222222222223E-3</v>
+        <v>0.12975694444444444</v>
       </c>
       <c r="H27" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1285,19 +1285,19 @@
         <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E28">
         <v>4</v>
       </c>
       <c r="F28" s="1">
-        <v>3.7696759259259256E-2</v>
+        <v>3.2939814814814811E-2</v>
       </c>
       <c r="G28" s="1">
-        <v>0.12975694444444444</v>
+        <v>0.12152777777777778</v>
       </c>
       <c r="H28" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1311,19 +1311,19 @@
         <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29">
         <v>4</v>
       </c>
       <c r="F29" s="1">
-        <v>3.2939814814814811E-2</v>
+        <v>7.8773148148148148E-2</v>
       </c>
       <c r="G29" s="1">
-        <v>0.12152777777777778</v>
+        <v>0.1816550925925926</v>
       </c>
       <c r="H29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1337,24 +1337,24 @@
         <v>16</v>
       </c>
       <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30">
         <v>10</v>
       </c>
-      <c r="E30">
-        <v>4</v>
-      </c>
-      <c r="F30" s="1">
-        <v>7.8773148148148148E-2</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0.1816550925925926</v>
+      <c r="F30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" t="s">
+        <v>36</v>
       </c>
       <c r="H30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>66688</v>
+        <v>10000</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
@@ -1363,19 +1363,19 @@
         <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E31">
-        <v>10</v>
-      </c>
-      <c r="F31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G31" t="s">
-        <v>36</v>
+        <v>4</v>
+      </c>
+      <c r="F31" s="1">
+        <v>8.449074074074075E-4</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1.0185185185185186E-3</v>
       </c>
       <c r="H31" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1389,19 +1389,19 @@
         <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32" t="s">
-        <v>36</v>
-      </c>
-      <c r="G32" t="s">
-        <v>36</v>
+        <v>4</v>
+      </c>
+      <c r="F32" s="1">
+        <v>6.7939814814814816E-3</v>
+      </c>
+      <c r="G32" s="1">
+        <v>2.0891203703703703E-2</v>
       </c>
       <c r="H32" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -1415,19 +1415,19 @@
         <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E33">
         <v>4</v>
       </c>
       <c r="F33" s="1">
-        <v>8.449074074074075E-4</v>
+        <v>2.5347222222222221E-3</v>
       </c>
       <c r="G33" s="1">
-        <v>1.0185185185185186E-3</v>
+        <v>8.5069444444444437E-3</v>
       </c>
       <c r="H33" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -1441,19 +1441,19 @@
         <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E34">
         <v>4</v>
       </c>
       <c r="F34" s="1">
-        <v>6.7939814814814816E-3</v>
+        <v>7.4826388888888887E-2</v>
       </c>
       <c r="G34" s="1">
-        <v>2.0891203703703703E-2</v>
+        <v>0.1759375</v>
       </c>
       <c r="H34" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -1467,70 +1467,18 @@
         <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E35">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F35" s="1">
-        <v>2.5347222222222221E-3</v>
+        <v>5.0578703703703706E-3</v>
       </c>
       <c r="G35" s="1">
-        <v>8.5069444444444437E-3</v>
+        <v>4.1562500000000002E-2</v>
       </c>
       <c r="H35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>10000</v>
-      </c>
-      <c r="B36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36">
-        <v>4</v>
-      </c>
-      <c r="F36" s="1">
-        <v>7.4826388888888887E-2</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0.1759375</v>
-      </c>
-      <c r="H36" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>10000</v>
-      </c>
-      <c r="B37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37">
-        <v>10</v>
-      </c>
-      <c r="F37" s="1">
-        <v>5.0578703703703706E-3</v>
-      </c>
-      <c r="G37" s="1">
-        <v>4.1562500000000002E-2</v>
-      </c>
-      <c r="H37" t="s">
         <v>41</v>
       </c>
     </row>

--- a/Tables/Table6_Computation_Time_and_Memory.xlsx
+++ b/Tables/Table6_Computation_Time_and_Memory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C280AC2E-B098-4F1A-9E9A-09F8FE34050B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141F431E-42D5-471C-ABBD-FEE76FF4B14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -251,12 +251,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -271,10 +277,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="21" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -754,159 +762,159 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
         <v>10000</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
         <v>1.3368055555555557E-2</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="4">
         <v>1.329861111111111E-2</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
         <v>10000</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="E9" s="3">
+        <v>4</v>
+      </c>
+      <c r="F9" s="4">
         <v>2.6620370370370372E-4</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="4">
         <v>7.7546296296296304E-4</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>10000</v>
       </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E10">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="E10" s="3">
+        <v>4</v>
+      </c>
+      <c r="F10" s="4">
         <v>7.3379629629629628E-3</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="4">
         <v>2.3344907407407408E-2</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
         <v>10000</v>
       </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E11">
-        <v>4</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="E11" s="3">
+        <v>4</v>
+      </c>
+      <c r="F11" s="4">
         <v>2.0138888888888888E-3</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="4">
         <v>6.9791666666666674E-3</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
         <v>10000</v>
       </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E12">
-        <v>4</v>
-      </c>
-      <c r="F12" s="1">
+      <c r="E12" s="3">
+        <v>4</v>
+      </c>
+      <c r="F12" s="4">
         <v>1.3506944444444445E-2</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="4">
         <v>3.7685185185185183E-2</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
         <v>10000</v>
       </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>10</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="4">
         <v>3.9930555555555561E-3</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="4">
         <v>2.8055555555555556E-2</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1066,159 +1074,159 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
         <v>41360</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="3">
         <v>1</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="4">
         <v>6.9467592592592595E-2</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="4">
         <v>6.913194444444444E-2</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
         <v>41360</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E21">
-        <v>4</v>
-      </c>
-      <c r="F21" s="1">
+      <c r="E21" s="3">
+        <v>4</v>
+      </c>
+      <c r="F21" s="4">
         <v>1.3078703703703705E-3</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="4">
         <v>2.9282407407407412E-3</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
         <v>41360</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22">
-        <v>4</v>
-      </c>
-      <c r="F22" s="1">
+      <c r="E22" s="3">
+        <v>4</v>
+      </c>
+      <c r="F22" s="4">
         <v>2.8703703703703703E-2</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="4">
         <v>9.1840277777777771E-2</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23">
+    <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
         <v>41360</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E23">
-        <v>4</v>
-      </c>
-      <c r="F23" s="1">
+      <c r="E23" s="3">
+        <v>4</v>
+      </c>
+      <c r="F23" s="4">
         <v>1.9872685185185184E-2</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="4">
         <v>7.1851851851851847E-2</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24">
+    <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
         <v>41360</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E24">
-        <v>4</v>
-      </c>
-      <c r="F24" s="1">
+      <c r="E24" s="3">
+        <v>4</v>
+      </c>
+      <c r="F24" s="4">
         <v>3.6724537037037035E-2</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="4">
         <v>7.9386574074074082E-2</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25">
+    <row r="25" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
         <v>41360</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="3">
         <v>10</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="4">
         <v>1.1342592592592591E-3</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="4">
         <v>1.6203703703703703E-3</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1352,133 +1360,133 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31">
+    <row r="31" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
         <v>10000</v>
       </c>
-      <c r="B31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E31">
-        <v>4</v>
-      </c>
-      <c r="F31" s="1">
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="4">
         <v>8.449074074074075E-4</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="4">
         <v>1.0185185185185186E-3</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32">
+    <row r="32" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
         <v>10000</v>
       </c>
-      <c r="B32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E32">
-        <v>4</v>
-      </c>
-      <c r="F32" s="1">
+      <c r="E32" s="3">
+        <v>4</v>
+      </c>
+      <c r="F32" s="4">
         <v>6.7939814814814816E-3</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="4">
         <v>2.0891203703703703E-2</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33">
+    <row r="33" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
         <v>10000</v>
       </c>
-      <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E33">
-        <v>4</v>
-      </c>
-      <c r="F33" s="1">
+      <c r="E33" s="3">
+        <v>4</v>
+      </c>
+      <c r="F33" s="4">
         <v>2.5347222222222221E-3</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="4">
         <v>8.5069444444444437E-3</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34">
+    <row r="34" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
         <v>10000</v>
       </c>
-      <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E34">
-        <v>4</v>
-      </c>
-      <c r="F34" s="1">
+      <c r="E34" s="3">
+        <v>4</v>
+      </c>
+      <c r="F34" s="4">
         <v>7.4826388888888887E-2</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="4">
         <v>0.1759375</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35">
+    <row r="35" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
         <v>10000</v>
       </c>
-      <c r="B35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="3">
         <v>10</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="4">
         <v>5.0578703703703706E-3</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="4">
         <v>4.1562500000000002E-2</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="3" t="s">
         <v>41</v>
       </c>
     </row>

--- a/Tables/Table6_Computation_Time_and_Memory.xlsx
+++ b/Tables/Table6_Computation_Time_and_Memory.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141F431E-42D5-471C-ABBD-FEE76FF4B14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7152F98-5BAF-4C02-8AAE-BB889BF045CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="51">
   <si>
     <t>Trait</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -563,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -574,13 +574,21 @@
     <col min="1" max="1" width="19.33203125" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
     <col min="5" max="5" width="13.83203125" customWidth="1"/>
     <col min="6" max="6" width="11.9140625" customWidth="1"/>
     <col min="7" max="7" width="13.08203125" customWidth="1"/>
+    <col min="11" max="11" width="17.9140625" customWidth="1"/>
+    <col min="12" max="12" width="14.08203125" customWidth="1"/>
+    <col min="13" max="13" width="11.9140625" customWidth="1"/>
+    <col min="14" max="14" width="11.58203125" customWidth="1"/>
+    <col min="15" max="15" width="9.25" customWidth="1"/>
+    <col min="16" max="16" width="10.1640625" customWidth="1"/>
+    <col min="17" max="17" width="10.25" customWidth="1"/>
+    <col min="18" max="18" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -605,8 +613,32 @@
       <c r="H1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>66688</v>
       </c>
@@ -631,8 +663,32 @@
       <c r="H2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K2">
+        <v>7985</v>
+      </c>
+      <c r="L2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1">
+        <v>9.3287037037037036E-3</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>9.2708333333333341E-3</v>
+      </c>
+      <c r="R2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>66688</v>
       </c>
@@ -657,8 +713,32 @@
       <c r="H3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K3">
+        <v>7985</v>
+      </c>
+      <c r="L3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3">
+        <v>4</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1.9675925925925926E-4</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>5.5555555555555556E-4</v>
+      </c>
+      <c r="R3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>66688</v>
       </c>
@@ -683,8 +763,32 @@
       <c r="H4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <v>7985</v>
+      </c>
+      <c r="L4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4" s="1">
+        <v>3.7731481481481483E-3</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1.2708333333333334E-2</v>
+      </c>
+      <c r="R4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>66688</v>
       </c>
@@ -709,8 +813,32 @@
       <c r="H5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <v>7985</v>
+      </c>
+      <c r="L5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="P5" s="1">
+        <v>3.2870370370370367E-3</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>9.3981481481481485E-3</v>
+      </c>
+      <c r="R5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>66688</v>
       </c>
@@ -735,8 +863,32 @@
       <c r="H6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K6">
+        <v>7985</v>
+      </c>
+      <c r="L6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6" s="2">
+        <v>9.7569444444444448E-3</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>3.0416666666666665E-2</v>
+      </c>
+      <c r="R6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>66688</v>
       </c>
@@ -761,8 +913,32 @@
       <c r="H7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K7">
+        <v>7985</v>
+      </c>
+      <c r="L7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7">
+        <v>10</v>
+      </c>
+      <c r="P7" s="1">
+        <v>5.7870370370370366E-5</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>3.7037037037037035E-4</v>
+      </c>
+      <c r="R7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>10000</v>
       </c>
@@ -787,8 +963,32 @@
       <c r="H8" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K8" s="3">
+        <v>41360</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1</v>
+      </c>
+      <c r="P8" s="4">
+        <v>6.9467592592592595E-2</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>6.913194444444444E-2</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>10000</v>
       </c>
@@ -813,8 +1013,32 @@
       <c r="H9" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K9" s="3">
+        <v>41360</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O9" s="3">
+        <v>4</v>
+      </c>
+      <c r="P9" s="4">
+        <v>1.3078703703703705E-3</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>2.9282407407407412E-3</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>10000</v>
       </c>
@@ -839,8 +1063,32 @@
       <c r="H10" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K10" s="3">
+        <v>41360</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O10" s="3">
+        <v>4</v>
+      </c>
+      <c r="P10" s="4">
+        <v>2.8703703703703703E-2</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>9.1840277777777771E-2</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10000</v>
       </c>
@@ -865,8 +1113,32 @@
       <c r="H11" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K11" s="3">
+        <v>41360</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O11" s="3">
+        <v>4</v>
+      </c>
+      <c r="P11" s="4">
+        <v>1.9872685185185184E-2</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>7.1851851851851847E-2</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>10000</v>
       </c>
@@ -891,8 +1163,32 @@
       <c r="H12" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K12" s="3">
+        <v>41360</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="3">
+        <v>4</v>
+      </c>
+      <c r="P12" s="4">
+        <v>3.6724537037037035E-2</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>7.9386574074074082E-2</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>10000</v>
       </c>
@@ -917,8 +1213,32 @@
       <c r="H13" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K13" s="3">
+        <v>41360</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O13" s="3">
+        <v>10</v>
+      </c>
+      <c r="P13" s="4">
+        <v>1.1342592592592591E-3</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>1.6203703703703703E-3</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>7985</v>
       </c>
@@ -944,7 +1264,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>7985</v>
       </c>
@@ -970,7 +1290,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>7985</v>
       </c>
